--- a/biology/Mycologie/Helvella_lacunosa/Helvella_lacunosa.xlsx
+++ b/biology/Mycologie/Helvella_lacunosa/Helvella_lacunosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helvella lacunosa
 L’Helvelle lacuneuse (Helvella lacunosa) est une espèce de champignons ascomycètes de la famille des Helvellacées.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un champignon formé d’un chapeau (3–10 cm) gris foncé à noir, ayant une forme de selle ou une conformation plus ou moins chiffonnée ou lobée, avec un pied grisâtre à noirâtre parcouru sur toute sa hauteur de sillons profonds et irréguliers. Sa chair est mince, rigide, élastique et sans odeur si ce n’est une faible odeur terreuse.
 L'Helvelle lacuneuse pousse sur le sol, aussi bien dans les bois de feuillus clairs et humides (plus rarement dans les résineux) le long des sentiers, que dans l’herbe, les haies et les talus des prairies. On la trouve de la fin de l’été jusqu’à la fin de l’automne.
@@ -544,7 +558,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Helvella lacunosa est un champignon toxique à l’état cru et cuit. À laisser sur place.
 </t>
